--- a/data/trans_bre/P25_5-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_5-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,25</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,08</t>
+          <t>-7,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>-5,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-36,65%</t>
+          <t>92,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-61,47%</t>
+          <t>-40,18%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-74,79%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-72,66%</t>
         </is>
       </c>
     </row>
@@ -642,30 +668,40 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 7,67</t>
+          <t>-7,13; 12,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 4,14</t>
+          <t>-17,33; 6,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 1,72</t>
+          <t>-24,21; 2,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-82,57; 296,4</t>
+          <t>-20,33; 2,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-88,81; 166,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-7,32</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,75%</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-25,09%</t>
+          <t>-58,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-42,28%</t>
+          <t>-75,56%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 11,59</t>
+          <t>-14,69; 3,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 5,09</t>
+          <t>-15,03; 1,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 3,72</t>
+          <t>-17,98; -1,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-74,76; 906,24</t>
+          <t>-11,12; 10,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 396,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-82,12; 444,09</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>62,19%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>51,75%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11,6%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>30,45%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 7,19</t>
+          <t>-9,41; 9,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 9,56</t>
+          <t>-5,54; 10,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 9,41</t>
+          <t>-10,53; 10,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-62,22; 224,54</t>
+          <t>-7,35; 15,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,35; 516,27</t>
+          <t>-66,09; 293,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,83; 281,76</t>
+          <t>-64,52; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-61,72; 202,86</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-57,42; 423,03</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-34,01%</t>
+          <t>40,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,08%</t>
+          <t>-12,77%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-0,84%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,73%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 6,97</t>
+          <t>-6,35; 11,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 2,76</t>
+          <t>-10,51; 6,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 6,24</t>
+          <t>-10,13; 8,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,61; 215,56</t>
+          <t>-8,95; 9,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-73,06; 58,3</t>
+          <t>-52,06; 372,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,74; 106,17</t>
+          <t>-71,85; 127,91</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-58,13; 118,77</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-61,12; 168,32</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-43,77%</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>-27,88%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-26,6%</t>
+          <t>140,49%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-60,23%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-13,52%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 3,26</t>
+          <t>-21,84; 8,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 7,73</t>
+          <t>-2,79; 13,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 4,62</t>
+          <t>-24,01; 3,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 128,28</t>
+          <t>-17,0; 8,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-69,09; 391,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-93,64; 203,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>8,52</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>41,65%</t>
+          <t>13,38</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-15,8%</t>
+          <t>316,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>176,19%</t>
+          <t>208,36%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>261,83%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>299,47%</t>
         </is>
       </c>
     </row>
@@ -1042,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 9,55</t>
+          <t>-0,83; 24,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 8,24</t>
+          <t>-2,81; 21,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 20,3</t>
+          <t>-2,65; 21,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-71,89; 552,25</t>
+          <t>-1,49; 41,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1067,7 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-51,14; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-11,52%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-17,77%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>31,53%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 3,32</t>
+          <t>-3,69; 5,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 2,29</t>
+          <t>-3,16; 4,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 3,43</t>
+          <t>-5,98; 2,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-38,37; 64,48</t>
+          <t>-2,31; 9,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-45,01; 48,75</t>
+          <t>-38,74; 112,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-36,28; 64,5</t>
+          <t>-41,15; 101,46</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-52,6; 48,76</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-29,16; 188,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25_5-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_5-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,171 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,99</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,82</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-7,02</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-5,21</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>92,17%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-40,18%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-74,79%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-72,66%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.075589284207991</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-5.538576852065844</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-9.715145304197595</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-5.214817253780103</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.2156581323964649</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.5754325414508149</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.8109567280453451</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.7244795228105491</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,13; 12,31</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-17,33; 6,07</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-24,21; 2,41</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-20,33; 2,01</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-13.9103061419662</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-24.61253869143776</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-31.64853827323032</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-20.17204056138493</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.5600144336422</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.674073442691906</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.205520373631358</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.022773563268835</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,64</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,71</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-7,32</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-58,47%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-75,56%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-14,69; 3,9</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-15,03; 1,51</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-17,98; -1,67</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,12; 10,59</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-82,12; 444,09</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-3.37949101204909</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.101657650516252</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-7.638957885938526</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.7912862851075231</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.5119635066743963</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.7087650873725927</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1173338609219359</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>12,12%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>51,75%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>11,6%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>30,45%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-11.22612941686811</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-13.20455537717143</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-19.34677840121509</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-9.278707402140105</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
+        <v>-0.7932798277657209</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,41; 9,68</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,54; 10,18</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,53; 10,31</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,35; 15,52</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-66,09; 293,28</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-64,52; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-61,72; 202,86</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-57,42; 423,03</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.610282939916231</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.722095859024959</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-1.707385375163853</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.70299536468797</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="n">
+        <v>4.897823509290876</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +799,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,15</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,27</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>40,65%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-12,77%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-0,84%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,73%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.772149148894441</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.079694631806155</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.7832006701702989</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.181627704474075</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.2108802929525897</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1655392396749586</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.06940236059034523</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2332606749400372</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,35; 11,32</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-10,51; 6,75</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-10,13; 8,69</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-8,95; 9,29</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-52,06; 372,96</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-71,85; 127,91</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-58,13; 118,77</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-61,12; 168,32</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.297967077911716</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.366657668243136</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.53064618002535</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.299597455201727</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.6319879385851362</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.7523990870820177</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6346402117334313</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6182396412016122</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.48102637035878</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.767901067753737</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.39108466302035</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>14.62534885798736</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>3.186153580114737</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>7.326611744319999</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.94437403116242</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>3.957753543367862</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,46</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,63</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-5,58</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,81</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-27,88%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>140,49%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-60,23%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-13,52%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-21,84; 8,29</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,79; 13,54</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-24,01; 3,77</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-17,0; 8,31</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>3.961175362814159</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.4363509391307349</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1820905243663962</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.76547441005691</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.5366519188346415</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.04520150333510489</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.01516508926023033</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.07743005542488363</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>8,52</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,42</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>13,38</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>316,24%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>208,36%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>261,83%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>299,47%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.800090838825103</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-9.528195980508658</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-9.711576217786012</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-8.407867128662689</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.4882420915569835</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6761954680469463</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5531383679284442</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.6037253599094037</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 24,07</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,81; 21,93</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 21,83</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 41,93</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>13.7543016474408</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.943616183133467</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.473913958952481</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.630447168836655</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>4.609689565853367</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.64575478787986</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.362338306080597</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.769513683440283</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +999,265 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,58</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,4</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>19,21%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>7,43%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-17,77%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>31,53%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-3.20481488939502</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>3.365867058419726</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-6.37598291689944</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.972869555990362</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.3468925871670124</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1.308279547736616</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.6506455302947186</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.1567959625662641</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-3,69; 5,46</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,16; 4,16</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,98; 2,73</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; 9,97</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-38,74; 112,93</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-41,15; 101,46</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-52,6; 48,76</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-29,16; 188,15</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-23.37503170235459</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-2.825070728075723</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-25.97062304474326</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-18.032041247545</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="inlineStr"/>
+      <c r="J17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>7.830522329490576</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>12.8852881185636</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>3.444408835007653</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>8.250442423502726</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>8.694815679940621</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>5.130447538337987</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>5.977825436416841</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>9.443542639475666</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>3.568678323370779</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>2.171842368449165</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>2.613241486432765</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>1.841682673377707</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-0.32267433120083</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-2.960066911174642</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-2.358024742849338</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-3.642059135224119</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>25.93715596474834</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>23.63947309529704</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>21.81915426879852</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>35.21062074420694</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.593090961618228</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.0261400549820906</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-2.355603481933888</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.694550544354863</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.2320712430598895</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.004094470152754571</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.2439790229390702</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.222754005353046</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.595050621866021</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.042646236270262</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-7.510890678341172</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-3.099182698045777</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.3770368360038402</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.4546962719696375</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.5711867152138773</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.3206035342026983</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>5.863157050358982</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>3.695794759217187</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.97097180117792</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>7.782473882854251</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1.257427576908342</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.9178533211375457</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.3159159083103331</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>1.559363334589257</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1265,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
